--- a/Result/checksun/數位雲端.xlsx
+++ b/Result/checksun/數位雲端.xlsx
@@ -20091,7 +20091,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV101" t="inlineStr"/>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -20279,7 +20283,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV102" t="inlineStr"/>
+      <c r="AV102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20467,7 +20475,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV103" t="inlineStr"/>
+      <c r="AV103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -20655,7 +20667,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV104" t="inlineStr"/>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -20843,7 +20859,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV105" t="inlineStr"/>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -21031,7 +21051,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV106" t="inlineStr"/>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -21219,7 +21243,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV107" t="inlineStr"/>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -21407,7 +21435,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV108" t="inlineStr"/>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -21595,7 +21627,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV109" t="inlineStr"/>
+      <c r="AV109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -21783,7 +21819,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV110" t="inlineStr"/>
+      <c r="AV110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -21979,7 +22019,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV111" t="inlineStr"/>
+      <c r="AV111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">

--- a/Result/checksun/數位雲端.xlsx
+++ b/Result/checksun/數位雲端.xlsx
@@ -725,17 +725,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1163,17 +1163,17 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3347,17 +3347,17 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3778,20 +3778,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
         <v>-1</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -3998,13 +3998,13 @@
         <v>-4</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4212,16 +4212,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4429,20 +4429,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4866,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5510,16 +5510,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5728,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6373,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6588,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6801,17 +6801,17 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7854,17 +7854,17 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -8070,16 +8070,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8292,13 +8292,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8508,20 +8508,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
         <v>-1</v>
       </c>
       <c r="D38" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8727,20 +8727,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -8946,20 +8946,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9165,20 +9165,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C41" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>112</v>
+        <v>-19</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9387,17 +9387,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9603,20 +9603,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10256,13 +10256,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -10476,10 +10476,10 @@
         <v>-1</v>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -10690,13 +10690,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -11127,10 +11127,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="n">
         <v>-1</v>
@@ -11341,20 +11341,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11558,16 +11558,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -11778,17 +11778,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -11992,20 +11992,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12639,20 +12639,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B57" t="n">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="C57" t="n">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>-10</v>
+        <v>-77</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12870,20 +12870,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="B58" t="n">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>-54</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -13097,20 +13097,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="C59" t="n">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -13324,16 +13324,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13551,16 +13551,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13778,20 +13778,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B62" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>-26</v>
+        <v>18</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14005,20 +14005,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B63" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>122</v>
+        <v>-17</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14232,20 +14232,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14459,20 +14459,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15112,20 +15112,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15338,17 +15338,17 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -15554,20 +15554,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15773,13 +15773,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B71" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -15995,13 +15995,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16211,20 +16211,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16430,20 +16430,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16652,17 +16652,17 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16868,20 +16868,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17521,16 +17521,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
         <v>2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -17959,16 +17959,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18181,13 +18181,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18397,16 +18397,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18616,13 +18616,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -18838,17 +18838,17 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19057,13 +19057,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -19276,13 +19276,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -19922,20 +19922,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="C90" t="n">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>-25</v>
+        <v>-9</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20141,20 +20141,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B91" t="n">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="C91" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D91" t="n">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -20360,20 +20360,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B92" t="n">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -20579,20 +20579,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="B93" t="n">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="C93" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="D93" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20798,20 +20798,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="C94" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -21017,13 +21017,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="C95" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>-12</v>
@@ -21236,20 +21236,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="D96" t="n">
-        <v>354</v>
+        <v>-46</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21455,20 +21455,20 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -21674,20 +21674,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22327,13 +22327,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22785,16 +22785,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23004,16 +23004,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23223,16 +23223,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
         <v>3</v>
       </c>
-      <c r="B105" t="n">
-        <v>6</v>
-      </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23442,16 +23442,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>4</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" t="n">
         <v>2</v>
       </c>
-      <c r="B106" t="n">
-        <v>8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23661,20 +23661,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23883,13 +23883,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -24099,20 +24099,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24752,16 +24752,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -24973,20 +24973,20 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="n">
         <v>-3</v>
       </c>
-      <c r="B113" t="n">
-        <v>47</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>3</v>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -25190,16 +25190,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B114" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -25407,16 +25407,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B115" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C115" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25627,10 +25627,10 @@
         <v>-4</v>
       </c>
       <c r="B116" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
@@ -25841,20 +25841,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B117" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C117" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -26058,20 +26058,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B118" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26275,13 +26275,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -26495,17 +26495,17 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27139,20 +27139,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C123" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="n">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -27370,20 +27370,20 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C124" t="n">
         <v>-4</v>
       </c>
       <c r="D124" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -27601,20 +27601,20 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B125" t="n">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>-15</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -27832,20 +27832,20 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -28063,16 +28063,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B127" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C127" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -28294,20 +28294,20 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -28525,20 +28525,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D129" t="n">
-        <v>39</v>
+        <v>-6</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -28756,20 +28756,20 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -28987,20 +28987,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -29679,17 +29679,17 @@
         <v>-2</v>
       </c>
       <c r="B134" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
         <v>-2</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -29902,17 +29902,17 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -30118,20 +30118,20 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -30340,17 +30340,17 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30556,20 +30556,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B138" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D138" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -30778,13 +30778,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -30994,20 +30994,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C140" t="n">
         <v>-2</v>
       </c>
       <c r="D140" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31213,20 +31213,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31432,20 +31432,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -32085,16 +32085,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -32319,17 +32319,17 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -32547,16 +32547,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B147" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C147" t="n">
         <v>-3</v>
       </c>
       <c r="D147" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -32778,13 +32778,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -33009,20 +33009,20 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C149" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -33240,16 +33240,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B150" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33471,20 +33471,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B151" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -33705,17 +33705,17 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -33933,20 +33933,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -34622,20 +34622,20 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B156" t="n">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="C156" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D156" t="n">
-        <v>18</v>
+        <v>-70</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -34853,20 +34853,20 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B157" t="n">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="D157" t="n">
-        <v>32</v>
+        <v>-2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -35084,16 +35084,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B158" t="n">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C158" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D158" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -35307,20 +35307,20 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B159" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -35530,16 +35530,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B160" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C160" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35753,20 +35753,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B161" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D161" t="n">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -35979,17 +35979,17 @@
         <v>-3</v>
       </c>
       <c r="B162" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C162" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>66</v>
+        <v>-5</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -36199,20 +36199,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -36422,20 +36422,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -37087,20 +37087,20 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B167" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D167" t="n">
         <v>-3</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -37309,17 +37309,17 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -37528,17 +37528,17 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -37744,16 +37744,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B170" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C170" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37966,13 +37966,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -38182,16 +38182,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -38401,20 +38401,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="n">
         <v>-2</v>
       </c>
-      <c r="B173" t="n">
-        <v>20</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>20</v>
-      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38620,20 +38620,20 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38839,20 +38839,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39492,16 +39492,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B178" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -39715,16 +39715,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
+        <v>6</v>
+      </c>
+      <c r="B179" t="n">
+        <v>23</v>
+      </c>
+      <c r="C179" t="n">
         <v>5</v>
       </c>
-      <c r="B179" t="n">
-        <v>25</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
       <c r="D179" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -39937,10 +39937,10 @@
         <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
@@ -40153,13 +40153,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -40375,13 +40375,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D182" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -40591,16 +40591,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -40810,20 +40810,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -41032,17 +41032,17 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -41248,20 +41248,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41901,20 +41901,20 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B189" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C189" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -42124,16 +42124,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B190" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C190" t="n">
         <v>-1</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42347,20 +42347,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B191" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D191" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -42573,17 +42573,17 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -42793,20 +42793,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>-55</v>
+        <v>-5</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -43016,16 +43016,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C194" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>-32</v>
+        <v>-12</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43239,20 +43239,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B195" t="n">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C195" t="n">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>136</v>
+        <v>-58</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -43462,20 +43462,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -43685,20 +43685,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -44350,20 +44350,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B200" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>-31</v>
+        <v>-8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -44581,20 +44581,20 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="B201" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
         <v>-10</v>
       </c>
-      <c r="D201" t="n">
-        <v>-95</v>
-      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -44808,20 +44808,20 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="B202" t="n">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C202" t="n">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>-19</v>
+        <v>-28</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -45035,20 +45035,20 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="B203" t="n">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D203" t="n">
-        <v>9</v>
+        <v>-89</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -45262,20 +45262,20 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="B204" t="n">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C204" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="D204" t="n">
-        <v>13</v>
+        <v>-10</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -45489,13 +45489,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B205" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C205" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D205" t="n">
         <v>31</v>
@@ -45719,13 +45719,13 @@
         <v>16</v>
       </c>
       <c r="B206" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C206" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D206" t="n">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -45943,20 +45943,20 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -46165,17 +46165,17 @@
         <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46815,16 +46815,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -47037,17 +47037,17 @@
         <v>-1</v>
       </c>
       <c r="B212" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C212" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -47261,10 +47261,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B213" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -47488,20 +47488,20 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B214" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -47715,16 +47715,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B215" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -47942,16 +47942,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -48169,16 +48169,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -48399,13 +48399,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48626,17 +48626,17 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -49300,13 +49300,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B222" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
         <v>31</v>
@@ -49531,20 +49531,20 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B223" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -49758,10 +49758,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C224" t="n">
         <v>3</v>
@@ -49977,16 +49977,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -50199,10 +50199,10 @@
         <v>3</v>
       </c>
       <c r="B226" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D226" t="n">
         <v>8</v>
@@ -50415,16 +50415,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
+        <v>0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
         <v>-1</v>
-      </c>
-      <c r="B227" t="n">
-        <v>9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -50637,17 +50637,17 @@
         <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50856,7 +50856,7 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -51075,17 +51075,17 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51725,20 +51725,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C233" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -51956,20 +51956,20 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B234" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
         <v>4</v>
       </c>
-      <c r="D234" t="n">
-        <v>6</v>
-      </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -52183,10 +52183,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B235" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C235" t="n">
         <v>-2</v>
@@ -52410,13 +52410,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B236" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C236" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
         <v>11</v>
@@ -52637,10 +52637,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>4</v>
+      </c>
+      <c r="B237" t="n">
         <v>3</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4</v>
       </c>
       <c r="C237" t="n">
         <v>3</v>
@@ -52856,20 +52856,20 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
         <v>2</v>
       </c>
-      <c r="C238" t="n">
-        <v>3</v>
-      </c>
       <c r="D238" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -53075,20 +53075,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -53294,20 +53294,20 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -53513,20 +53513,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -54166,16 +54166,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -54388,13 +54388,13 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C245" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -54604,20 +54604,20 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -54823,16 +54823,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B247" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D247" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -55045,13 +55045,13 @@
         <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -55264,13 +55264,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -55480,20 +55480,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>78</v>
+        <v>-8</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55702,17 +55702,17 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55918,20 +55918,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56571,13 +56571,13 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="B255" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C255" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
         <v>-4</v>
@@ -56788,20 +56788,20 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="B256" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D256" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -57005,20 +57005,20 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="B257" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C257" t="n">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>-37</v>
+        <v>-2</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -57222,20 +57222,20 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
+        <v>-13</v>
+      </c>
+      <c r="B258" t="n">
+        <v>14</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5</v>
+      </c>
+      <c r="D258" t="n">
         <v>-14</v>
       </c>
-      <c r="B258" t="n">
-        <v>71</v>
-      </c>
-      <c r="C258" t="n">
-        <v>-14</v>
-      </c>
-      <c r="D258" t="n">
-        <v>-7</v>
-      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -57439,20 +57439,20 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="B259" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C259" t="n">
         <v>-11</v>
       </c>
       <c r="D259" t="n">
-        <v>-1</v>
+        <v>-33</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -57656,20 +57656,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="B260" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C260" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="D260" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57873,20 +57873,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B261" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C261" t="n">
-        <v>22</v>
+        <v>-19</v>
       </c>
       <c r="D261" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -58090,20 +58090,20 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -58307,20 +58307,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -59600,11 +59600,11 @@
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -59807,17 +59807,17 @@
         <v>0</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -60022,17 +60022,17 @@
         <v>0</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
@@ -61342,13 +61342,13 @@
         <v>0</v>
       </c>
       <c r="B277" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -61558,16 +61558,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -61780,13 +61780,13 @@
         <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -61999,13 +61999,13 @@
         <v>0</v>
       </c>
       <c r="B280" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -62215,10 +62215,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -62434,20 +62434,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B282" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C282" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -62653,20 +62653,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B283" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62872,20 +62872,20 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -63094,17 +63094,17 @@
         <v>0</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
